--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1594021.978874748</v>
+        <v>1621487.322839751</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8366761.161367839</v>
+        <v>8366761.16136784</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>290.7136588394942</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968158</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>288.5154980667415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>85.22504708635493</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H12" t="n">
         <v>93.13436112172582</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>134.9469826428689</v>
+        <v>84.80628138988725</v>
       </c>
       <c r="T12" t="n">
         <v>192.192932426668</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>9.592838305986282</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
-        <v>117.0923496168185</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2285878140705</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>270.0239140924726</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.23050812789991</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
-        <v>93.13436112172582</v>
+        <v>42.99365986874372</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>63.50388216742117</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T15" t="n">
         <v>192.192932426668</v>
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I16" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>101.3900275469984</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>62.24275547717575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>405.9692555183593</v>
+        <v>320.3325583164184</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>63.92264786388792</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H18" t="n">
         <v>93.13436112172583</v>
       </c>
       <c r="I18" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8112657109832</v>
+        <v>175.6705644579984</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>38.81914894036117</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>114.4382862095209</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
-        <v>128.5789528195149</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>124.7874829717001</v>
+        <v>77.54728525389923</v>
       </c>
       <c r="T20" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>63.50388216741892</v>
+        <v>63.50388216741982</v>
       </c>
       <c r="T21" t="n">
         <v>192.192932426668</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
-        <v>273.151533176298</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>193.7064373344799</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,13 +2326,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>253.4617714729241</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>345.5598530897757</v>
       </c>
     </row>
     <row r="24">
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
-        <v>22.80996346317402</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>14.14622437318294</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2560,19 +2560,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>195.3237932237982</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>46.69505547136153</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>74.10390382124592</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>29.20684972755697</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>105.5870378728063</v>
@@ -2763,22 +2763,22 @@
         <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>162.289593724792</v>
       </c>
       <c r="F29" t="n">
-        <v>20.1359386102793</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
         <v>301.6186538912489</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>98.8310582836741</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>122.5541220940186</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>81.02143177966725</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>250.3053764171432</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I33" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S34" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>244.2949832816328</v>
+        <v>248.9684514240214</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>213.0706668080178</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>83.64023450659862</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I36" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>63.50388216741938</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T36" t="n">
-        <v>192.192932426668</v>
+        <v>120.749831951219</v>
       </c>
       <c r="U36" t="n">
         <v>225.8112657109832</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>130.2216220433</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.3328844140846</v>
@@ -3444,7 +3444,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>20.29930837442473</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0499378478622</v>
+        <v>129.4454780423717</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>172.7559558006005</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>42.99365986874063</v>
+        <v>42.99365986874107</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3681,7 +3681,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>38.81914894036094</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>72.39177697618524</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>137.0400029819593</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>151.9314927911454</v>
       </c>
       <c r="H41" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
-        <v>42.99365986874019</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216741892</v>
       </c>
       <c r="T42" t="n">
         <v>192.192932426668</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>14.73953333835932</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
         <v>220.8610019386828</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>15.81373631978243</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>32.58608272271542</v>
       </c>
       <c r="H44" t="n">
-        <v>154.9193176704972</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4064,7 +4064,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>107.5043792024152</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4073,7 +4073,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H45" t="n">
-        <v>42.99365986874019</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>81.85280994626693</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>175.7137596351014</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>920.0255292190052</v>
+        <v>1166.874267951374</v>
       </c>
       <c r="C11" t="n">
-        <v>920.0255292190052</v>
+        <v>797.9117510109622</v>
       </c>
       <c r="D11" t="n">
-        <v>920.0255292190052</v>
+        <v>504.2615905670287</v>
       </c>
       <c r="E11" t="n">
-        <v>534.237276620761</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="F11" t="n">
-        <v>534.237276620761</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="G11" t="n">
-        <v>118.4733379687845</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H11" t="n">
-        <v>118.4733379687845</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I11" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870204</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819845</v>
+        <v>181.1756535819841</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799501</v>
+        <v>428.7854999799497</v>
       </c>
       <c r="L11" t="n">
         <v>772.8691714549166</v>
@@ -5056,37 +5056,37 @@
         <v>1613.248129085909</v>
       </c>
       <c r="O11" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317526</v>
       </c>
       <c r="P11" t="n">
         <v>2299.347327962851</v>
       </c>
       <c r="Q11" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561749</v>
       </c>
       <c r="R11" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435102</v>
       </c>
       <c r="S11" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435102</v>
       </c>
       <c r="T11" t="n">
-        <v>2281.886707923823</v>
+        <v>2490.891446435102</v>
       </c>
       <c r="U11" t="n">
-        <v>2281.886707923823</v>
+        <v>2237.30565062918</v>
       </c>
       <c r="V11" t="n">
-        <v>1950.823820580253</v>
+        <v>1906.24276328561</v>
       </c>
       <c r="W11" t="n">
-        <v>1598.055165310139</v>
+        <v>1553.474108015496</v>
       </c>
       <c r="X11" t="n">
-        <v>1598.055165310139</v>
+        <v>1553.474108015496</v>
       </c>
       <c r="Y11" t="n">
-        <v>1306.625369283127</v>
+        <v>1553.474108015496</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>859.1382992416516</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C12" t="n">
-        <v>684.6852699605246</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D12" t="n">
-        <v>535.7508602992733</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E12" t="n">
-        <v>376.5134052938178</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F12" t="n">
-        <v>229.9788473207028</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G12" t="n">
         <v>143.8929411728695</v>
       </c>
       <c r="H12" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870204</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870204</v>
       </c>
       <c r="J12" t="n">
-        <v>234.0659274310208</v>
+        <v>109.2358024440161</v>
       </c>
       <c r="K12" t="n">
-        <v>560.634250650493</v>
+        <v>288.9454078621916</v>
       </c>
       <c r="L12" t="n">
-        <v>848.5985338331556</v>
+        <v>576.9096910448543</v>
       </c>
       <c r="M12" t="n">
-        <v>1203.996138081827</v>
+        <v>932.3072952935261</v>
       </c>
       <c r="N12" t="n">
-        <v>1583.208704312132</v>
+        <v>1311.519861523831</v>
       </c>
       <c r="O12" t="n">
-        <v>1907.894322025889</v>
+        <v>1636.205479237588</v>
       </c>
       <c r="P12" t="n">
-        <v>2149.150088787598</v>
+        <v>2192.739386952835</v>
       </c>
       <c r="Q12" t="n">
-        <v>2468.480498228521</v>
+        <v>2490.891446435102</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435102</v>
       </c>
       <c r="S12" t="n">
-        <v>2354.581362957455</v>
+        <v>2405.228535940266</v>
       </c>
       <c r="T12" t="n">
-        <v>2160.447087779002</v>
+        <v>2211.094260761814</v>
       </c>
       <c r="U12" t="n">
-        <v>1932.354900192151</v>
+        <v>1983.002073174962</v>
       </c>
       <c r="V12" t="n">
-        <v>1697.202791960408</v>
+        <v>1747.849964943219</v>
       </c>
       <c r="W12" t="n">
-        <v>1442.965435232206</v>
+        <v>1493.612608215017</v>
       </c>
       <c r="X12" t="n">
-        <v>1235.113935026674</v>
+        <v>1285.761108009485</v>
       </c>
       <c r="Y12" t="n">
-        <v>1027.35363626172</v>
+        <v>1078.000809244531</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>217.8308434883834</v>
+        <v>662.5320035358144</v>
       </c>
       <c r="C13" t="n">
-        <v>217.8308434883834</v>
+        <v>493.5958206079075</v>
       </c>
       <c r="D13" t="n">
-        <v>217.8308434883834</v>
+        <v>493.5958206079075</v>
       </c>
       <c r="E13" t="n">
-        <v>217.8308434883834</v>
+        <v>345.6827270255144</v>
       </c>
       <c r="F13" t="n">
-        <v>217.8308434883834</v>
+        <v>198.7927795276041</v>
       </c>
       <c r="G13" t="n">
-        <v>49.81782892870201</v>
+        <v>198.7927795276041</v>
       </c>
       <c r="H13" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870204</v>
       </c>
       <c r="I13" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870204</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477641</v>
       </c>
       <c r="K13" t="n">
-        <v>242.1145636490679</v>
+        <v>242.114563649068</v>
       </c>
       <c r="L13" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394358</v>
       </c>
       <c r="M13" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642504</v>
       </c>
       <c r="N13" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O13" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P13" t="n">
         <v>1557.066378230431</v>
@@ -5226,25 +5226,25 @@
         <v>1505.443183112052</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.168082489003</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.076161338818</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9563756680401</v>
+        <v>1216.323397441274</v>
       </c>
       <c r="V13" t="n">
-        <v>620.2718874621532</v>
+        <v>961.6389092353874</v>
       </c>
       <c r="W13" t="n">
-        <v>620.2718874621532</v>
+        <v>672.2217391984268</v>
       </c>
       <c r="X13" t="n">
-        <v>620.2718874621532</v>
+        <v>672.2217391984268</v>
       </c>
       <c r="Y13" t="n">
-        <v>399.4793083186231</v>
+        <v>672.2217391984268</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>844.9556486454601</v>
+        <v>1518.281617686933</v>
       </c>
       <c r="C14" t="n">
-        <v>475.9931317050484</v>
+        <v>1149.319100746521</v>
       </c>
       <c r="D14" t="n">
-        <v>117.7274330982979</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="E14" t="n">
-        <v>117.7274330982979</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F14" t="n">
-        <v>117.7274330982979</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G14" t="n">
-        <v>117.7274330982979</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="H14" t="n">
-        <v>117.7274330982979</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="I14" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819832</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799491</v>
       </c>
       <c r="L14" t="n">
         <v>772.8691714549152</v>
@@ -5290,40 +5290,40 @@
         <v>1187.397991240659</v>
       </c>
       <c r="N14" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O14" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317526</v>
       </c>
       <c r="P14" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962851</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561749</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="T14" t="n">
-        <v>2155.838745326146</v>
+        <v>2281.886707923824</v>
       </c>
       <c r="U14" t="n">
-        <v>1902.252949520225</v>
+        <v>2281.886707923824</v>
       </c>
       <c r="V14" t="n">
-        <v>1571.190062176654</v>
+        <v>2281.886707923824</v>
       </c>
       <c r="W14" t="n">
-        <v>1218.42140690654</v>
+        <v>2281.886707923824</v>
       </c>
       <c r="X14" t="n">
-        <v>844.9556486454601</v>
+        <v>1908.420949662745</v>
       </c>
       <c r="Y14" t="n">
-        <v>844.9556486454601</v>
+        <v>1518.281617686933</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416525</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605255</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992742</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6781532488151</v>
+        <v>376.5134052938187</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207037</v>
       </c>
       <c r="G15" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005932</v>
       </c>
       <c r="H15" t="n">
-        <v>71.33540390088821</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="I15" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="J15" t="n">
-        <v>119.1040605898638</v>
+        <v>109.2358024440161</v>
       </c>
       <c r="K15" t="n">
-        <v>560.634250650492</v>
+        <v>288.9454078621916</v>
       </c>
       <c r="L15" t="n">
-        <v>848.5985338331548</v>
+        <v>576.9096910448544</v>
       </c>
       <c r="M15" t="n">
-        <v>1203.996138081827</v>
+        <v>932.3072952935263</v>
       </c>
       <c r="N15" t="n">
-        <v>1583.208704312131</v>
+        <v>1311.519861523831</v>
       </c>
       <c r="O15" t="n">
-        <v>1907.894322025889</v>
+        <v>1636.205479237589</v>
       </c>
       <c r="P15" t="n">
-        <v>2149.150088787598</v>
+        <v>2192.739386952836</v>
       </c>
       <c r="Q15" t="n">
-        <v>2468.480498228521</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957456</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779003</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960409</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232207</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026674</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261721</v>
       </c>
     </row>
     <row r="16">
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>624.4991754767419</v>
+        <v>812.6486429481502</v>
       </c>
       <c r="C16" t="n">
-        <v>455.562992548835</v>
+        <v>643.7124600202433</v>
       </c>
       <c r="D16" t="n">
-        <v>305.4463531364993</v>
+        <v>493.5958206079075</v>
       </c>
       <c r="E16" t="n">
-        <v>305.4463531364993</v>
+        <v>345.6827270255144</v>
       </c>
       <c r="F16" t="n">
-        <v>305.4463531364993</v>
+        <v>198.792779527604</v>
       </c>
       <c r="G16" t="n">
-        <v>305.4463531364993</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H16" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="I16" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477641</v>
       </c>
       <c r="K16" t="n">
-        <v>242.1145636490679</v>
+        <v>242.114563649068</v>
       </c>
       <c r="L16" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394358</v>
       </c>
       <c r="M16" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642504</v>
       </c>
       <c r="N16" t="n">
         <v>1104.867129907539</v>
@@ -5469,19 +5469,19 @@
         <v>1386.128447054743</v>
       </c>
       <c r="U16" t="n">
-        <v>1097.008661383964</v>
+        <v>1386.128447054743</v>
       </c>
       <c r="V16" t="n">
-        <v>1097.008661383964</v>
+        <v>1283.71427781535</v>
       </c>
       <c r="W16" t="n">
-        <v>1097.008661383964</v>
+        <v>994.2971077783899</v>
       </c>
       <c r="X16" t="n">
-        <v>869.0191104859471</v>
+        <v>994.2971077783899</v>
       </c>
       <c r="Y16" t="n">
-        <v>806.1476403069817</v>
+        <v>994.2971077783899</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1214.638553536408</v>
+        <v>1142.637673048715</v>
       </c>
       <c r="C17" t="n">
-        <v>845.676036595996</v>
+        <v>1142.637673048715</v>
       </c>
       <c r="D17" t="n">
-        <v>845.676036595996</v>
+        <v>784.3719744419645</v>
       </c>
       <c r="E17" t="n">
-        <v>459.8877839977518</v>
+        <v>784.3719744419645</v>
       </c>
       <c r="F17" t="n">
-        <v>459.8877839977518</v>
+        <v>373.386069652357</v>
       </c>
       <c r="G17" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H17" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819825</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799478</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L17" t="n">
-        <v>772.8691714549141</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M17" t="n">
         <v>1187.397991240658</v>
       </c>
       <c r="N17" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O17" t="n">
-        <v>2002.031077317522</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P17" t="n">
-        <v>2299.347327962847</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q17" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R17" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S17" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T17" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U17" t="n">
-        <v>2364.843483837421</v>
+        <v>2237.305650629177</v>
       </c>
       <c r="V17" t="n">
-        <v>2364.843483837421</v>
+        <v>1906.242763285607</v>
       </c>
       <c r="W17" t="n">
-        <v>2364.843483837421</v>
+        <v>1906.242763285607</v>
       </c>
       <c r="X17" t="n">
-        <v>1991.377725576341</v>
+        <v>1532.777005024527</v>
       </c>
       <c r="Y17" t="n">
-        <v>1601.238393600529</v>
+        <v>1142.637673048715</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>859.1382992416488</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C18" t="n">
-        <v>684.6852699605219</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D18" t="n">
-        <v>535.7508602992706</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E18" t="n">
-        <v>376.5134052938151</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F18" t="n">
-        <v>229.9788473207001</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H18" t="n">
-        <v>71.33540390088818</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J18" t="n">
-        <v>141.5150087964417</v>
+        <v>141.5150087964426</v>
       </c>
       <c r="K18" t="n">
-        <v>583.0451988570699</v>
+        <v>583.0451988570708</v>
       </c>
       <c r="L18" t="n">
-        <v>871.0094820397323</v>
+        <v>871.0094820397333</v>
       </c>
       <c r="M18" t="n">
-        <v>1226.407086288404</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N18" t="n">
         <v>1605.619652518709</v>
@@ -5612,34 +5612,34 @@
         <v>1930.305270232466</v>
       </c>
       <c r="P18" t="n">
-        <v>2171.561036994175</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R18" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957452</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T18" t="n">
         <v>2160.447087779</v>
       </c>
       <c r="U18" t="n">
-        <v>1932.354900192148</v>
+        <v>1983.002073174962</v>
       </c>
       <c r="V18" t="n">
-        <v>1697.202791960405</v>
+        <v>1747.849964943219</v>
       </c>
       <c r="W18" t="n">
-        <v>1442.965435232204</v>
+        <v>1493.612608215017</v>
       </c>
       <c r="X18" t="n">
-        <v>1235.113935026671</v>
+        <v>1285.761108009485</v>
       </c>
       <c r="Y18" t="n">
-        <v>1027.353636261717</v>
+        <v>1078.000809244531</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.81782892870196</v>
+        <v>552.9070031411161</v>
       </c>
       <c r="C19" t="n">
-        <v>49.81782892870196</v>
+        <v>552.9070031411161</v>
       </c>
       <c r="D19" t="n">
-        <v>49.81782892870196</v>
+        <v>552.9070031411161</v>
       </c>
       <c r="E19" t="n">
-        <v>49.81782892870196</v>
+        <v>513.6957415851957</v>
       </c>
       <c r="F19" t="n">
-        <v>49.81782892870196</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G19" t="n">
-        <v>49.81782892870196</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H19" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I19" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477627</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K19" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L19" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M19" t="n">
-        <v>809.9798694642498</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N19" t="n">
         <v>1104.867129907538</v>
@@ -5691,34 +5691,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P19" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q19" t="n">
         <v>1609.220368204926</v>
       </c>
       <c r="R19" t="n">
-        <v>1505.443183112051</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S19" t="n">
-        <v>1308.3517434821</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T19" t="n">
-        <v>1085.259822331915</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U19" t="n">
-        <v>1085.259822331915</v>
+        <v>1097.008661383963</v>
       </c>
       <c r="V19" t="n">
-        <v>969.6655938374497</v>
+        <v>842.3241731780766</v>
       </c>
       <c r="W19" t="n">
-        <v>680.2484238004891</v>
+        <v>552.9070031411161</v>
       </c>
       <c r="X19" t="n">
-        <v>452.2588729024718</v>
+        <v>552.9070031411161</v>
       </c>
       <c r="Y19" t="n">
-        <v>231.4662937589417</v>
+        <v>552.9070031411161</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1392.233655089252</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="C20" t="n">
-        <v>1392.233655089252</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="D20" t="n">
-        <v>1392.233655089252</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E20" t="n">
-        <v>1006.445402491008</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F20" t="n">
-        <v>595.4594977014006</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G20" t="n">
-        <v>179.695559049424</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H20" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I20" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J20" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799486</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549145</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M20" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N20" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O20" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P20" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q20" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R20" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S20" t="n">
-        <v>2364.843483837421</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="T20" t="n">
-        <v>2155.838745326144</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="U20" t="n">
-        <v>2155.838745326144</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="V20" t="n">
-        <v>2155.838745326144</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="W20" t="n">
-        <v>2155.838745326144</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="X20" t="n">
-        <v>1782.372987065064</v>
+        <v>2039.095097008464</v>
       </c>
       <c r="Y20" t="n">
-        <v>1392.233655089252</v>
+        <v>1648.955765032652</v>
       </c>
     </row>
     <row r="21">
@@ -5819,43 +5819,43 @@
         <v>448.6781532488151</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1435952757</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G21" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H21" t="n">
-        <v>71.33540390088818</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I21" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J21" t="n">
         <v>234.0659274310207</v>
       </c>
       <c r="K21" t="n">
-        <v>560.6342506504907</v>
+        <v>675.5961174916489</v>
       </c>
       <c r="L21" t="n">
-        <v>848.5985338331532</v>
+        <v>963.5604006743115</v>
       </c>
       <c r="M21" t="n">
-        <v>1203.996138081825</v>
+        <v>1318.958004922983</v>
       </c>
       <c r="N21" t="n">
-        <v>1583.208704312129</v>
+        <v>1698.170571153288</v>
       </c>
       <c r="O21" t="n">
-        <v>1907.894322025886</v>
+        <v>2022.856188867045</v>
       </c>
       <c r="P21" t="n">
-        <v>2149.150088787595</v>
+        <v>2264.111955628754</v>
       </c>
       <c r="Q21" t="n">
-        <v>2468.480498228519</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R21" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S21" t="n">
         <v>2426.746110912452</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>386.7670264162903</v>
+        <v>811.7254745799246</v>
       </c>
       <c r="C22" t="n">
-        <v>217.8308434883834</v>
+        <v>811.7254745799246</v>
       </c>
       <c r="D22" t="n">
-        <v>217.8308434883834</v>
+        <v>661.6088351675888</v>
       </c>
       <c r="E22" t="n">
-        <v>217.8308434883834</v>
+        <v>513.6957415851957</v>
       </c>
       <c r="F22" t="n">
-        <v>217.8308434883834</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G22" t="n">
-        <v>49.81782892870196</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H22" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I22" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J22" t="n">
-        <v>73.44728005477627</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K22" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L22" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M22" t="n">
-        <v>809.9798694642498</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N22" t="n">
         <v>1104.867129907538</v>
@@ -5928,7 +5928,7 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q22" t="n">
         <v>1609.220368204926</v>
@@ -5937,25 +5937,25 @@
         <v>1609.220368204926</v>
       </c>
       <c r="S22" t="n">
-        <v>1609.220368204926</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T22" t="n">
-        <v>1609.220368204926</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U22" t="n">
-        <v>1333.309728632908</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="V22" t="n">
-        <v>1078.625240427021</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="W22" t="n">
-        <v>789.2080703900601</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="X22" t="n">
-        <v>789.2080703900601</v>
+        <v>993.3739394101643</v>
       </c>
       <c r="Y22" t="n">
-        <v>568.41549124653</v>
+        <v>993.3739394101643</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1445.526690610529</v>
+        <v>1575.292951821981</v>
       </c>
       <c r="C23" t="n">
-        <v>1076.564173670117</v>
+        <v>1206.33043488157</v>
       </c>
       <c r="D23" t="n">
-        <v>718.2984750633668</v>
+        <v>848.0647362748191</v>
       </c>
       <c r="E23" t="n">
-        <v>718.2984750633668</v>
+        <v>462.2764836765748</v>
       </c>
       <c r="F23" t="n">
-        <v>307.3125702737593</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="G23" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H23" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I23" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J23" t="n">
-        <v>182.6484035402486</v>
+        <v>189.7538958209955</v>
       </c>
       <c r="K23" t="n">
-        <v>430.2582499382138</v>
+        <v>437.3637422189608</v>
       </c>
       <c r="L23" t="n">
-        <v>774.34192141318</v>
+        <v>781.447413693927</v>
       </c>
       <c r="M23" t="n">
-        <v>1261.035489153923</v>
+        <v>1195.976233479671</v>
       </c>
       <c r="N23" t="n">
-        <v>1686.885626999171</v>
+        <v>1621.826371324919</v>
       </c>
       <c r="O23" t="n">
-        <v>2075.668575230788</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P23" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q23" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S23" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T23" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U23" t="n">
-        <v>2184.895185944765</v>
+        <v>2310.943148542442</v>
       </c>
       <c r="V23" t="n">
-        <v>2184.895185944765</v>
+        <v>2310.943148542442</v>
       </c>
       <c r="W23" t="n">
-        <v>1832.126530674651</v>
+        <v>2310.943148542442</v>
       </c>
       <c r="X23" t="n">
-        <v>1832.126530674651</v>
+        <v>2310.943148542442</v>
       </c>
       <c r="Y23" t="n">
-        <v>1832.126530674651</v>
+        <v>1961.892791886103</v>
       </c>
     </row>
     <row r="24">
@@ -6050,43 +6050,43 @@
         <v>758.322767873787</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G24" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I24" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J24" t="n">
         <v>235.538677389286</v>
       </c>
       <c r="K24" t="n">
-        <v>677.0688674499141</v>
+        <v>415.2482828074614</v>
       </c>
       <c r="L24" t="n">
-        <v>965.0331506325767</v>
+        <v>703.2125659901239</v>
       </c>
       <c r="M24" t="n">
-        <v>1320.430754881248</v>
+        <v>1058.610170238795</v>
       </c>
       <c r="N24" t="n">
-        <v>1699.643321111553</v>
+        <v>1437.8227364691</v>
       </c>
       <c r="O24" t="n">
-        <v>2024.32893882531</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P24" t="n">
-        <v>2265.584705587019</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q24" t="n">
         <v>2564.528944348363</v>
@@ -6095,16 +6095,16 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S24" t="n">
-        <v>2428.218860870717</v>
+        <v>2428.218860870718</v>
       </c>
       <c r="T24" t="n">
-        <v>2234.084585692265</v>
+        <v>2234.084585692266</v>
       </c>
       <c r="U24" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V24" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W24" t="n">
         <v>1516.602933145469</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>368.1398553972673</v>
+        <v>666.3082770402796</v>
       </c>
       <c r="C25" t="n">
-        <v>199.2036724693604</v>
+        <v>666.3082770402796</v>
       </c>
       <c r="D25" t="n">
-        <v>199.2036724693604</v>
+        <v>516.1916376279438</v>
       </c>
       <c r="E25" t="n">
-        <v>51.29057888696726</v>
+        <v>368.2785440455507</v>
       </c>
       <c r="F25" t="n">
-        <v>51.29057888696726</v>
+        <v>368.2785440455507</v>
       </c>
       <c r="G25" t="n">
-        <v>51.29057888696726</v>
+        <v>200.2655294858693</v>
       </c>
       <c r="H25" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I25" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J25" t="n">
         <v>74.92003001304158</v>
@@ -6183,16 +6183,16 @@
         <v>901.3899717122773</v>
       </c>
       <c r="V25" t="n">
-        <v>878.3496045777581</v>
+        <v>901.3899717122773</v>
       </c>
       <c r="W25" t="n">
-        <v>588.9324345407974</v>
+        <v>901.3899717122773</v>
       </c>
       <c r="X25" t="n">
-        <v>588.9324345407974</v>
+        <v>887.1008561838097</v>
       </c>
       <c r="Y25" t="n">
-        <v>368.1398553972673</v>
+        <v>666.3082770402796</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>778.5187944341294</v>
+        <v>1414.32401404735</v>
       </c>
       <c r="C26" t="n">
-        <v>409.5562774937177</v>
+        <v>1045.361497106938</v>
       </c>
       <c r="D26" t="n">
-        <v>51.29057888696726</v>
+        <v>1045.361497106938</v>
       </c>
       <c r="E26" t="n">
-        <v>51.29057888696726</v>
+        <v>659.5732445086942</v>
       </c>
       <c r="F26" t="n">
-        <v>51.29057888696726</v>
+        <v>248.5873397190866</v>
       </c>
       <c r="G26" t="n">
-        <v>51.29057888696726</v>
+        <v>248.5873397190866</v>
       </c>
       <c r="H26" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I26" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J26" t="n">
-        <v>254.8131514952477</v>
+        <v>254.8131514952482</v>
       </c>
       <c r="K26" t="n">
-        <v>502.422997893213</v>
+        <v>502.4229978932134</v>
       </c>
       <c r="L26" t="n">
-        <v>846.5066693681792</v>
+        <v>846.5066693681797</v>
       </c>
       <c r="M26" t="n">
         <v>1261.035489153923</v>
@@ -6247,31 +6247,31 @@
         <v>2372.984825876113</v>
       </c>
       <c r="Q26" t="n">
-        <v>2548.08420147501</v>
+        <v>2548.084201475011</v>
       </c>
       <c r="R26" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S26" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T26" t="n">
-        <v>2229.476243239409</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U26" t="n">
-        <v>1975.890447433488</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V26" t="n">
-        <v>1928.723724735143</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="W26" t="n">
-        <v>1928.723724735143</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="X26" t="n">
-        <v>1555.257966474063</v>
+        <v>2191.063186087284</v>
       </c>
       <c r="Y26" t="n">
-        <v>1165.118634498251</v>
+        <v>1800.923854111472</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>932.7757971549141</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C27" t="n">
-        <v>758.3227678737871</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D27" t="n">
         <v>609.3883582125359</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F27" t="n">
         <v>303.6163452339654</v>
@@ -6302,46 +6302,46 @@
         <v>72.80815385915349</v>
       </c>
       <c r="I27" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J27" t="n">
         <v>235.538677389286</v>
       </c>
       <c r="K27" t="n">
-        <v>415.2482828074614</v>
+        <v>656.6826967703355</v>
       </c>
       <c r="L27" t="n">
-        <v>703.2125659901239</v>
+        <v>944.646979952998</v>
       </c>
       <c r="M27" t="n">
-        <v>1058.610170238795</v>
+        <v>1300.04458420167</v>
       </c>
       <c r="N27" t="n">
-        <v>1656.846202225395</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O27" t="n">
-        <v>1981.531819939152</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P27" t="n">
-        <v>2222.787586700861</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q27" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R27" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S27" t="n">
-        <v>2428.218860870717</v>
+        <v>2428.218860870718</v>
       </c>
       <c r="T27" t="n">
-        <v>2234.084585692265</v>
+        <v>2234.084585692266</v>
       </c>
       <c r="U27" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V27" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W27" t="n">
         <v>1516.602933145469</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>994.7042262493538</v>
+        <v>356.3822038354432</v>
       </c>
       <c r="C28" t="n">
-        <v>919.8517981470852</v>
+        <v>187.4460209075363</v>
       </c>
       <c r="D28" t="n">
-        <v>769.7351587347495</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="E28" t="n">
-        <v>621.8220651523563</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="F28" t="n">
-        <v>474.932117654446</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="G28" t="n">
-        <v>306.9191030947646</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="H28" t="n">
         <v>157.9441524958626</v>
       </c>
       <c r="I28" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J28" t="n">
         <v>74.92003001304158</v>
@@ -6411,25 +6411,25 @@
         <v>1506.915933070317</v>
       </c>
       <c r="S28" t="n">
-        <v>1506.915933070317</v>
+        <v>1309.824493440365</v>
       </c>
       <c r="T28" t="n">
-        <v>1283.824011920132</v>
+        <v>1309.824493440365</v>
       </c>
       <c r="U28" t="n">
-        <v>994.7042262493538</v>
+        <v>1020.704707769587</v>
       </c>
       <c r="V28" t="n">
-        <v>994.7042262493538</v>
+        <v>766.0202195637003</v>
       </c>
       <c r="W28" t="n">
-        <v>994.7042262493538</v>
+        <v>766.0202195637003</v>
       </c>
       <c r="X28" t="n">
-        <v>994.7042262493538</v>
+        <v>538.0306686656829</v>
       </c>
       <c r="Y28" t="n">
-        <v>994.7042262493538</v>
+        <v>538.0306686656829</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1172.178942364644</v>
+        <v>1362.569914696929</v>
       </c>
       <c r="C29" t="n">
-        <v>803.2164254242327</v>
+        <v>1362.569914696929</v>
       </c>
       <c r="D29" t="n">
-        <v>444.9507268174822</v>
+        <v>1004.304216090179</v>
       </c>
       <c r="E29" t="n">
-        <v>444.9507268174822</v>
+        <v>840.3753335398837</v>
       </c>
       <c r="F29" t="n">
-        <v>424.6113948879072</v>
+        <v>840.3753335398837</v>
       </c>
       <c r="G29" t="n">
         <v>424.6113948879072</v>
       </c>
       <c r="H29" t="n">
-        <v>119.9460879270497</v>
+        <v>119.9460879270498</v>
       </c>
       <c r="I29" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J29" t="n">
-        <v>254.8131514952477</v>
+        <v>254.8131514952482</v>
       </c>
       <c r="K29" t="n">
-        <v>502.422997893213</v>
+        <v>502.4229978932134</v>
       </c>
       <c r="L29" t="n">
-        <v>846.5066693681792</v>
+        <v>846.5066693681797</v>
       </c>
       <c r="M29" t="n">
         <v>1261.035489153923</v>
@@ -6484,31 +6484,31 @@
         <v>2372.984825876113</v>
       </c>
       <c r="Q29" t="n">
-        <v>2548.08420147501</v>
+        <v>2548.084201475011</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S29" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T29" t="n">
-        <v>2229.476243239409</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="U29" t="n">
-        <v>2229.476243239409</v>
+        <v>2101.938410031165</v>
       </c>
       <c r="V29" t="n">
-        <v>1898.413355895838</v>
+        <v>2101.938410031165</v>
       </c>
       <c r="W29" t="n">
-        <v>1545.644700625724</v>
+        <v>1749.169754761051</v>
       </c>
       <c r="X29" t="n">
-        <v>1172.178942364644</v>
+        <v>1749.169754761051</v>
       </c>
       <c r="Y29" t="n">
-        <v>1172.178942364644</v>
+        <v>1749.169754761051</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C30" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G30" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I30" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J30" t="n">
         <v>235.538677389286</v>
       </c>
       <c r="K30" t="n">
-        <v>415.2482828074614</v>
+        <v>656.6826967703355</v>
       </c>
       <c r="L30" t="n">
-        <v>703.2125659901239</v>
+        <v>944.646979952998</v>
       </c>
       <c r="M30" t="n">
-        <v>1058.610170238795</v>
+        <v>1300.04458420167</v>
       </c>
       <c r="N30" t="n">
-        <v>1693.331083965015</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O30" t="n">
-        <v>2018.016701678772</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P30" t="n">
-        <v>2259.272468440481</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q30" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R30" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S30" t="n">
-        <v>2428.218860870717</v>
+        <v>2428.218860870718</v>
       </c>
       <c r="T30" t="n">
-        <v>2234.084585692265</v>
+        <v>2234.084585692266</v>
       </c>
       <c r="U30" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V30" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W30" t="n">
         <v>1516.602933145469</v>
@@ -6587,7 +6587,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y30" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>772.9618506491748</v>
+        <v>538.3564157868913</v>
       </c>
       <c r="C31" t="n">
-        <v>772.9618506491748</v>
+        <v>369.4202328589844</v>
       </c>
       <c r="D31" t="n">
-        <v>622.8452112368391</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="E31" t="n">
-        <v>474.932117654446</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="F31" t="n">
-        <v>474.932117654446</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="G31" t="n">
-        <v>306.9191030947646</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H31" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I31" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J31" t="n">
         <v>74.92003001304158</v>
@@ -6651,22 +6651,22 @@
         <v>1610.693118163191</v>
       </c>
       <c r="T31" t="n">
-        <v>1510.8637663615</v>
+        <v>1387.601197013007</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.743980690722</v>
+        <v>1098.481411342229</v>
       </c>
       <c r="V31" t="n">
-        <v>1221.743980690722</v>
+        <v>843.7969231363417</v>
       </c>
       <c r="W31" t="n">
-        <v>1221.743980690722</v>
+        <v>720.004880617131</v>
       </c>
       <c r="X31" t="n">
-        <v>993.754429792705</v>
+        <v>720.004880617131</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.9618506491748</v>
+        <v>720.004880617131</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1217.027253215231</v>
+        <v>1332.484183966878</v>
       </c>
       <c r="C32" t="n">
-        <v>848.0647362748191</v>
+        <v>1332.484183966878</v>
       </c>
       <c r="D32" t="n">
-        <v>848.0647362748191</v>
+        <v>1332.484183966878</v>
       </c>
       <c r="E32" t="n">
-        <v>462.2764836765748</v>
+        <v>946.6959313686339</v>
       </c>
       <c r="F32" t="n">
-        <v>51.29057888696726</v>
+        <v>535.7100265790262</v>
       </c>
       <c r="G32" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270498</v>
       </c>
       <c r="H32" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270498</v>
       </c>
       <c r="I32" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J32" t="n">
         <v>182.6484035402486</v>
@@ -6709,43 +6709,43 @@
         <v>774.34192141318</v>
       </c>
       <c r="M32" t="n">
-        <v>1261.035489153923</v>
+        <v>1188.870741198923</v>
       </c>
       <c r="N32" t="n">
-        <v>1686.885626999171</v>
+        <v>1614.720879044172</v>
       </c>
       <c r="O32" t="n">
-        <v>2075.668575230788</v>
+        <v>2003.503827275789</v>
       </c>
       <c r="P32" t="n">
-        <v>2372.984825876113</v>
+        <v>2300.820077921114</v>
       </c>
       <c r="Q32" t="n">
-        <v>2548.08420147501</v>
+        <v>2548.084201475011</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2564.528944348363</v>
+        <v>2482.689114267891</v>
       </c>
       <c r="T32" t="n">
-        <v>2564.528944348363</v>
+        <v>2482.689114267891</v>
       </c>
       <c r="U32" t="n">
-        <v>2564.528944348363</v>
+        <v>2482.689114267891</v>
       </c>
       <c r="V32" t="n">
-        <v>2233.466057004792</v>
+        <v>2482.689114267891</v>
       </c>
       <c r="W32" t="n">
-        <v>1980.632343452122</v>
+        <v>2482.689114267891</v>
       </c>
       <c r="X32" t="n">
-        <v>1607.166585191042</v>
+        <v>2109.223356006812</v>
       </c>
       <c r="Y32" t="n">
-        <v>1217.027253215231</v>
+        <v>1719.084024031</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>72.80815385915349</v>
       </c>
       <c r="I33" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J33" t="n">
         <v>235.538677389286</v>
       </c>
       <c r="K33" t="n">
-        <v>415.2482828074612</v>
+        <v>634.2717485637559</v>
       </c>
       <c r="L33" t="n">
-        <v>703.2125659901237</v>
+        <v>922.2360317464183</v>
       </c>
       <c r="M33" t="n">
-        <v>1058.610170238795</v>
+        <v>1277.63363599509</v>
       </c>
       <c r="N33" t="n">
-        <v>1693.331083965015</v>
+        <v>1656.846202225395</v>
       </c>
       <c r="O33" t="n">
-        <v>2018.016701678772</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P33" t="n">
-        <v>2259.272468440481</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q33" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R33" t="n">
         <v>2564.528944348363</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>369.2017124137762</v>
+        <v>517.2333487251202</v>
       </c>
       <c r="C34" t="n">
-        <v>200.2655294858693</v>
+        <v>348.2971657972133</v>
       </c>
       <c r="D34" t="n">
-        <v>200.2655294858693</v>
+        <v>198.1805263848776</v>
       </c>
       <c r="E34" t="n">
-        <v>200.2655294858693</v>
+        <v>198.1805263848776</v>
       </c>
       <c r="F34" t="n">
-        <v>200.2655294858693</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="G34" t="n">
-        <v>200.2655294858693</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H34" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I34" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J34" t="n">
-        <v>74.92003001304157</v>
+        <v>74.92003001304158</v>
       </c>
       <c r="K34" t="n">
-        <v>243.587313607333</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L34" t="n">
         <v>514.9498010977007</v>
@@ -6885,25 +6885,25 @@
         <v>1506.915933070317</v>
       </c>
       <c r="S34" t="n">
-        <v>1309.824493440365</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="T34" t="n">
-        <v>1086.732572290181</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="U34" t="n">
-        <v>797.6127866194025</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="V34" t="n">
-        <v>550.8501772440159</v>
+        <v>1255.432648803628</v>
       </c>
       <c r="W34" t="n">
-        <v>550.8501772440159</v>
+        <v>966.0154787666677</v>
       </c>
       <c r="X34" t="n">
-        <v>550.8501772440159</v>
+        <v>738.0259278686503</v>
       </c>
       <c r="Y34" t="n">
-        <v>550.8501772440159</v>
+        <v>517.2333487251202</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>876.567672370286</v>
+        <v>1378.057192839783</v>
       </c>
       <c r="C35" t="n">
-        <v>876.567672370286</v>
+        <v>1009.094675899371</v>
       </c>
       <c r="D35" t="n">
-        <v>876.567672370286</v>
+        <v>650.8289772926207</v>
       </c>
       <c r="E35" t="n">
-        <v>876.567672370286</v>
+        <v>265.0407246943765</v>
       </c>
       <c r="F35" t="n">
-        <v>465.5817675806784</v>
+        <v>265.0407246943765</v>
       </c>
       <c r="G35" t="n">
-        <v>49.81782892870196</v>
+        <v>265.0407246943765</v>
       </c>
       <c r="H35" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I35" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J35" t="n">
         <v>181.1756535819833</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799484</v>
+        <v>428.7854999799486</v>
       </c>
       <c r="L35" t="n">
         <v>772.8691714549147</v>
@@ -6961,28 +6961,28 @@
         <v>2474.446703561745</v>
       </c>
       <c r="R35" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S35" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T35" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U35" t="n">
-        <v>2111.2576880315</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="V35" t="n">
-        <v>2026.772602671299</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="W35" t="n">
-        <v>2026.772602671299</v>
+        <v>2138.122791164984</v>
       </c>
       <c r="X35" t="n">
-        <v>1653.30684441022</v>
+        <v>1764.657032903905</v>
       </c>
       <c r="Y35" t="n">
-        <v>1263.167512434408</v>
+        <v>1764.657032903905</v>
       </c>
     </row>
     <row r="36">
@@ -7013,37 +7013,37 @@
         <v>71.3354039008882</v>
       </c>
       <c r="I36" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J36" t="n">
-        <v>141.5150087964423</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K36" t="n">
-        <v>583.0451988570704</v>
+        <v>560.6342506504916</v>
       </c>
       <c r="L36" t="n">
-        <v>871.0094820397329</v>
+        <v>848.5985338331541</v>
       </c>
       <c r="M36" t="n">
-        <v>1226.407086288404</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N36" t="n">
-        <v>1605.619652518709</v>
+        <v>1583.20870431213</v>
       </c>
       <c r="O36" t="n">
-        <v>1930.305270232466</v>
+        <v>1907.894322025887</v>
       </c>
       <c r="P36" t="n">
-        <v>2171.561036994175</v>
+        <v>2149.150088787596</v>
       </c>
       <c r="Q36" t="n">
-        <v>2490.891446435098</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R36" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S36" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T36" t="n">
         <v>2232.611835734</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>645.232733548125</v>
+        <v>706.3629683208864</v>
       </c>
       <c r="C37" t="n">
-        <v>513.6957415851957</v>
+        <v>537.4267853929795</v>
       </c>
       <c r="D37" t="n">
-        <v>513.6957415851957</v>
+        <v>387.3101459806437</v>
       </c>
       <c r="E37" t="n">
-        <v>513.6957415851957</v>
+        <v>387.3101459806437</v>
       </c>
       <c r="F37" t="n">
-        <v>366.8057940872854</v>
+        <v>387.3101459806437</v>
       </c>
       <c r="G37" t="n">
-        <v>198.792779527604</v>
+        <v>219.2971314209623</v>
       </c>
       <c r="H37" t="n">
-        <v>49.81782892870196</v>
+        <v>70.32218082206029</v>
       </c>
       <c r="I37" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J37" t="n">
-        <v>73.44728005477627</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K37" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L37" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M37" t="n">
-        <v>809.9798694642498</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N37" t="n">
         <v>1104.867129907538</v>
@@ -7113,7 +7113,7 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q37" t="n">
         <v>1609.220368204926</v>
@@ -7125,22 +7125,22 @@
         <v>1412.128928574975</v>
       </c>
       <c r="T37" t="n">
-        <v>1189.03700742479</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U37" t="n">
-        <v>899.9172217540118</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="V37" t="n">
-        <v>645.232733548125</v>
+        <v>934.3525192189037</v>
       </c>
       <c r="W37" t="n">
-        <v>645.232733548125</v>
+        <v>934.3525192189037</v>
       </c>
       <c r="X37" t="n">
-        <v>645.232733548125</v>
+        <v>706.3629683208864</v>
       </c>
       <c r="Y37" t="n">
-        <v>645.232733548125</v>
+        <v>706.3629683208864</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1215.554503256966</v>
+        <v>1642.475710903798</v>
       </c>
       <c r="C38" t="n">
-        <v>846.5919863165537</v>
+        <v>1273.513193963387</v>
       </c>
       <c r="D38" t="n">
-        <v>846.5919863165537</v>
+        <v>915.2474953566364</v>
       </c>
       <c r="E38" t="n">
-        <v>460.8037337183095</v>
+        <v>529.4592427583921</v>
       </c>
       <c r="F38" t="n">
-        <v>49.81782892870196</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="G38" t="n">
-        <v>49.81782892870196</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="H38" t="n">
-        <v>49.81782892870196</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I38" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819841</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799484</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L38" t="n">
-        <v>772.8691714549147</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M38" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N38" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P38" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q38" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R38" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S38" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T38" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U38" t="n">
-        <v>2111.2576880315</v>
+        <v>2360.138438311491</v>
       </c>
       <c r="V38" t="n">
-        <v>1780.194800687929</v>
+        <v>2029.07555096792</v>
       </c>
       <c r="W38" t="n">
-        <v>1780.194800687929</v>
+        <v>2029.07555096792</v>
       </c>
       <c r="X38" t="n">
-        <v>1605.693835232777</v>
+        <v>2029.07555096792</v>
       </c>
       <c r="Y38" t="n">
-        <v>1215.554503256966</v>
+        <v>2029.07555096792</v>
       </c>
     </row>
     <row r="39">
@@ -7229,55 +7229,55 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>859.1382992416493</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C39" t="n">
-        <v>684.6852699605223</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D39" t="n">
-        <v>535.750860299271</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E39" t="n">
-        <v>376.5134052938155</v>
+        <v>376.513405293816</v>
       </c>
       <c r="F39" t="n">
-        <v>229.9788473207005</v>
+        <v>229.978847320701</v>
       </c>
       <c r="G39" t="n">
-        <v>93.24576819005614</v>
+        <v>93.24576819005659</v>
       </c>
       <c r="H39" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I39" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J39" t="n">
-        <v>109.2358024440159</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K39" t="n">
-        <v>475.7435727620235</v>
+        <v>413.7755328491961</v>
       </c>
       <c r="L39" t="n">
-        <v>763.707855944686</v>
+        <v>701.7398160318586</v>
       </c>
       <c r="M39" t="n">
-        <v>1119.105460193357</v>
+        <v>1057.13742028053</v>
       </c>
       <c r="N39" t="n">
-        <v>1498.318026423662</v>
+        <v>1436.349986510835</v>
       </c>
       <c r="O39" t="n">
-        <v>1823.003644137419</v>
+        <v>1761.035604224592</v>
       </c>
       <c r="P39" t="n">
-        <v>2379.537551852666</v>
+        <v>2149.150088787596</v>
       </c>
       <c r="Q39" t="n">
-        <v>2490.891446435098</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R39" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S39" t="n">
         <v>2354.581362957453</v>
@@ -7286,19 +7286,19 @@
         <v>2160.447087779</v>
       </c>
       <c r="U39" t="n">
-        <v>1932.354900192148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V39" t="n">
         <v>1697.202791960406</v>
       </c>
       <c r="W39" t="n">
-        <v>1442.965435232204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X39" t="n">
-        <v>1235.113935026671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y39" t="n">
-        <v>1027.353636261717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="40">
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1087.315231116727</v>
+        <v>513.6957415851957</v>
       </c>
       <c r="C40" t="n">
-        <v>918.37904818882</v>
+        <v>513.6957415851957</v>
       </c>
       <c r="D40" t="n">
-        <v>768.2624087764842</v>
+        <v>513.6957415851957</v>
       </c>
       <c r="E40" t="n">
-        <v>620.3493151940911</v>
+        <v>513.6957415851957</v>
       </c>
       <c r="F40" t="n">
-        <v>473.4593676961807</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G40" t="n">
-        <v>305.4463531364993</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H40" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I40" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J40" t="n">
-        <v>73.44728005477627</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K40" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L40" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M40" t="n">
-        <v>809.9798694642498</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N40" t="n">
         <v>1104.867129907538</v>
@@ -7350,7 +7350,7 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P40" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q40" t="n">
         <v>1609.220368204926</v>
@@ -7359,25 +7359,25 @@
         <v>1609.220368204926</v>
       </c>
       <c r="S40" t="n">
-        <v>1609.220368204926</v>
+        <v>1570.009106649006</v>
       </c>
       <c r="T40" t="n">
-        <v>1609.220368204926</v>
+        <v>1346.917185498822</v>
       </c>
       <c r="U40" t="n">
-        <v>1609.220368204926</v>
+        <v>1057.797399828043</v>
       </c>
       <c r="V40" t="n">
-        <v>1609.220368204926</v>
+        <v>803.1129116221564</v>
       </c>
       <c r="W40" t="n">
-        <v>1536.097361158274</v>
+        <v>513.6957415851957</v>
       </c>
       <c r="X40" t="n">
-        <v>1308.107810260257</v>
+        <v>513.6957415851957</v>
       </c>
       <c r="Y40" t="n">
-        <v>1087.315231116727</v>
+        <v>513.6957415851957</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>861.8698982662936</v>
+        <v>1727.286356198206</v>
       </c>
       <c r="C41" t="n">
-        <v>492.9073813258819</v>
+        <v>1358.323839257795</v>
       </c>
       <c r="D41" t="n">
-        <v>354.4831358895594</v>
+        <v>1000.058140651044</v>
       </c>
       <c r="E41" t="n">
-        <v>354.4831358895594</v>
+        <v>614.2698880527998</v>
       </c>
       <c r="F41" t="n">
-        <v>354.4831358895594</v>
+        <v>203.2839832631923</v>
       </c>
       <c r="G41" t="n">
-        <v>354.4831358895594</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H41" t="n">
         <v>49.81782892870196</v>
@@ -7417,7 +7417,7 @@
         <v>428.7854999799484</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549147</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M41" t="n">
         <v>1187.397991240658</v>
@@ -7426,10 +7426,10 @@
         <v>1613.248129085906</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317522</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.347327962847</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q41" t="n">
         <v>2474.446703561745</v>
@@ -7438,25 +7438,25 @@
         <v>2490.891446435098</v>
       </c>
       <c r="S41" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="T41" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="U41" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="V41" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="W41" t="n">
-        <v>2012.074828567307</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="X41" t="n">
-        <v>1638.609070306227</v>
+        <v>2117.425688174018</v>
       </c>
       <c r="Y41" t="n">
-        <v>1248.469738330415</v>
+        <v>1727.286356198206</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.1382992416488</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C42" t="n">
-        <v>684.6852699605219</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D42" t="n">
-        <v>535.7508602992706</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E42" t="n">
-        <v>376.5134052938151</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F42" t="n">
-        <v>229.9788473207001</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G42" t="n">
-        <v>93.24576819005568</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H42" t="n">
-        <v>49.81782892870196</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I42" t="n">
         <v>49.81782892870196</v>
       </c>
       <c r="J42" t="n">
-        <v>109.2358024440159</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K42" t="n">
-        <v>288.9454078621912</v>
+        <v>560.6342506504908</v>
       </c>
       <c r="L42" t="n">
-        <v>576.9096910448537</v>
+        <v>848.5985338331533</v>
       </c>
       <c r="M42" t="n">
-        <v>1193.405324037541</v>
+        <v>1203.996138081825</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.900957030227</v>
+        <v>1583.208704312129</v>
       </c>
       <c r="O42" t="n">
-        <v>2134.586574743984</v>
+        <v>1907.894322025886</v>
       </c>
       <c r="P42" t="n">
-        <v>2375.842341505693</v>
+        <v>2149.150088787595</v>
       </c>
       <c r="Q42" t="n">
-        <v>2490.891446435098</v>
+        <v>2468.480498228519</v>
       </c>
       <c r="R42" t="n">
         <v>2490.891446435098</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957452</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192148</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960405</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W42" t="n">
-        <v>1442.965435232204</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026671</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.353636261717</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>211.5961939401066</v>
+        <v>918.37904818882</v>
       </c>
       <c r="C43" t="n">
-        <v>196.7077764266123</v>
+        <v>918.37904818882</v>
       </c>
       <c r="D43" t="n">
-        <v>196.7077764266123</v>
+        <v>768.2624087764842</v>
       </c>
       <c r="E43" t="n">
-        <v>196.7077764266123</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="F43" t="n">
-        <v>49.81782892870196</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81782892870196</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870196</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I43" t="n">
         <v>49.81782892870196</v>
@@ -7596,25 +7596,25 @@
         <v>1609.220368204926</v>
       </c>
       <c r="S43" t="n">
-        <v>1609.220368204926</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T43" t="n">
-        <v>1386.128447054741</v>
+        <v>1189.03700742479</v>
       </c>
       <c r="U43" t="n">
-        <v>1386.128447054741</v>
+        <v>1189.03700742479</v>
       </c>
       <c r="V43" t="n">
-        <v>1131.443958848854</v>
+        <v>934.3525192189032</v>
       </c>
       <c r="W43" t="n">
-        <v>842.0267888118938</v>
+        <v>918.37904818882</v>
       </c>
       <c r="X43" t="n">
-        <v>614.0372379138764</v>
+        <v>918.37904818882</v>
       </c>
       <c r="Y43" t="n">
-        <v>393.2446587703463</v>
+        <v>918.37904818882</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>961.0527577304863</v>
+        <v>1248.469738330415</v>
       </c>
       <c r="C44" t="n">
-        <v>592.0902407900746</v>
+        <v>879.5072213900037</v>
       </c>
       <c r="D44" t="n">
-        <v>592.0902407900746</v>
+        <v>879.5072213900037</v>
       </c>
       <c r="E44" t="n">
-        <v>206.3019881918304</v>
+        <v>493.7189687917594</v>
       </c>
       <c r="F44" t="n">
-        <v>206.3019881918304</v>
+        <v>82.73306400215188</v>
       </c>
       <c r="G44" t="n">
-        <v>206.3019881918304</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H44" t="n">
         <v>49.81782892870196</v>
@@ -7654,7 +7654,7 @@
         <v>428.7854999799484</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549145</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M44" t="n">
         <v>1187.397991240658</v>
@@ -7681,19 +7681,19 @@
         <v>2364.843483837421</v>
       </c>
       <c r="U44" t="n">
-        <v>2111.2576880315</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="V44" t="n">
-        <v>2111.2576880315</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="W44" t="n">
-        <v>2111.2576880315</v>
+        <v>2012.074828567307</v>
       </c>
       <c r="X44" t="n">
-        <v>1737.79192977042</v>
+        <v>1638.609070306227</v>
       </c>
       <c r="Y44" t="n">
-        <v>1347.652597794608</v>
+        <v>1248.469738330415</v>
       </c>
     </row>
     <row r="45">
@@ -7712,13 +7712,13 @@
         <v>535.7508602992706</v>
       </c>
       <c r="E45" t="n">
-        <v>376.5134052938151</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F45" t="n">
-        <v>229.9788473207001</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G45" t="n">
-        <v>93.24576819005568</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H45" t="n">
         <v>49.81782892870196</v>
@@ -7730,22 +7730,22 @@
         <v>234.0659274310207</v>
       </c>
       <c r="K45" t="n">
-        <v>560.6342506504908</v>
+        <v>675.5961174916488</v>
       </c>
       <c r="L45" t="n">
-        <v>848.5985338331533</v>
+        <v>963.5604006743113</v>
       </c>
       <c r="M45" t="n">
-        <v>1203.996138081825</v>
+        <v>1318.958004922983</v>
       </c>
       <c r="N45" t="n">
-        <v>1583.208704312129</v>
+        <v>1698.170571153287</v>
       </c>
       <c r="O45" t="n">
-        <v>1907.894322025886</v>
+        <v>2022.856188867044</v>
       </c>
       <c r="P45" t="n">
-        <v>2149.150088787595</v>
+        <v>2357.126603646086</v>
       </c>
       <c r="Q45" t="n">
         <v>2468.480498228519</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>664.8355270820142</v>
+        <v>616.3365799205309</v>
       </c>
       <c r="C46" t="n">
-        <v>664.8355270820142</v>
+        <v>447.400396992624</v>
       </c>
       <c r="D46" t="n">
-        <v>514.7188876696785</v>
+        <v>447.400396992624</v>
       </c>
       <c r="E46" t="n">
-        <v>366.8057940872853</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="F46" t="n">
-        <v>366.8057940872853</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G46" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H46" t="n">
         <v>49.81782892870196</v>
@@ -7836,22 +7836,22 @@
         <v>1609.220368204926</v>
       </c>
       <c r="T46" t="n">
-        <v>1386.128447054741</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="U46" t="n">
-        <v>1097.008661383963</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="V46" t="n">
-        <v>842.3241731780762</v>
+        <v>1354.535879999039</v>
       </c>
       <c r="W46" t="n">
-        <v>664.8355270820142</v>
+        <v>1065.118709962078</v>
       </c>
       <c r="X46" t="n">
-        <v>664.8355270820142</v>
+        <v>837.129159064061</v>
       </c>
       <c r="Y46" t="n">
-        <v>664.8355270820142</v>
+        <v>616.3365799205309</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>148.3421391932291</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>188.6850150503376</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053376</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>9.967937521058275</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>188.6850150503362</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053375</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>32.60525894184418</v>
+        <v>32.60525894184509</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>148.3421391932269</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>116.5915113372855</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>7.177264930047443</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>72.89368480302949</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>243.8731454170446</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>189.4851961403146</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>22.88434839053382</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>72.89368480302946</v>
+        <v>72.89368480302991</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>243.8731454170446</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>221.235823996257</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>72.89368480302946</v>
+        <v>72.89368480302991</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>243.8731454170446</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>258.0892398948638</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.2238718372425</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>72.8936848030296</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>72.89368480302969</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>221.2358239962571</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>258.0892398948638</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>195.8611932580301</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>22.88434839053383</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>32.60525894184482</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>148.3421391932279</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>22.88434839053383</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.6850150503357</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>148.3421391932279</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>22.88434839053383</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>148.3421391932271</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>263.7353825697124</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>239.6798654165475</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.732535704012236</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>22.88434839053383</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>148.3421391932271</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>93.95418991649785</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>63.96938278118876</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
         <v>301.6186538912489</v>
@@ -23311,10 +23311,10 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>97.72244058931204</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>50.14070125298299</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246433</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>50.14070125298163</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>170.239141875951</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H13" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>105.5870378728063</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>78.02817561683328</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>84.65912752821032</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7384458217816956</v>
+        <v>67.96895394968158</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>50.1407012529821</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>21.30239922246432</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>71.44310047544769</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.3328844140846</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>150.7476157768296</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>156.341897874919</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.63704374709738</v>
+        <v>91.27374094903831</v>
       </c>
       <c r="H17" t="n">
         <v>301.6186538912489</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T17" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>71.44310047545</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>50.14070125298485</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>107.614813706208</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>105.5870378728063</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>137.6993571143071</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>173.039701071734</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
         <v>67.96895394968166</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>47.2401977178009</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U20" t="n">
         <v>251.0499378478622</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>71.44310047544998</v>
+        <v>71.44310047544909</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>105.5870378728063</v>
@@ -24177,25 +24177,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S22" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>13.07705463777245</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>32.00321805455721</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24214,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>158.1445277925326</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
         <v>301.6186538912489</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
         <v>206.9146911261644</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>40.6780855662779</v>
       </c>
     </row>
     <row r="24">
@@ -24366,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>105.5870378728063</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>229.327679860654</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>211.5634310158542</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24448,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H26" t="n">
-        <v>301.6186538912489</v>
+        <v>106.2948606674507</v>
       </c>
       <c r="I26" t="n">
         <v>67.96895394968166</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
-        <v>281.0572029987734</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>93.14291727738191</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>119.4086232906554</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>219.6407763474698</v>
       </c>
       <c r="F29" t="n">
-        <v>386.7401071314321</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
-        <v>122.0299436550087</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>163.9688762425724</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7874829717001</v>
+        <v>43.76605119203288</v>
       </c>
       <c r="T32" t="n">
         <v>206.9146911261644</v>
@@ -24976,10 +24976,10 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>98.93559230026983</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I34" t="n">
         <v>105.5870378728063</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V34" t="n">
-        <v>7.842660042195234</v>
+        <v>3.169191899806577</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
-        <v>301.6186538912489</v>
+        <v>88.54798708323111</v>
       </c>
       <c r="I35" t="n">
         <v>67.96895394968166</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
-        <v>244.1120239635363</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25283,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>71.44310047544953</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>71.44310047544907</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>37.02519905532785</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>105.5870378728063</v>
+        <v>85.28772949838162</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>121.6044598054906</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>196.9751448778685</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>50.1407012529852</v>
+        <v>50.14070125298476</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S40" t="n">
-        <v>195.1205252336517</v>
+        <v>156.3013762932908</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>214.1312213604058</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>217.6430386387237</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6062992654567</v>
+        <v>259.6748064743113</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
         <v>67.96895394968166</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T41" t="n">
         <v>206.9146911261644</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>50.14070125298564</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246437</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>71.44310047544998</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>152.5072877602685</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>102.7394132419461</v>
       </c>
       <c r="S43" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>270.7092620168086</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.6062992654567</v>
+        <v>379.0202165427413</v>
       </c>
       <c r="H44" t="n">
-        <v>146.6993362207517</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
         <v>67.96895394968166</v>
@@ -25921,13 +25921,13 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -25952,7 +25952,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>50.14070125298572</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>50.14070125298564</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>21.30239922246437</v>
@@ -26025,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>64.58115270030224</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I46" t="n">
         <v>105.5870378728063</v>
@@ -26076,22 +26076,22 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>110.8092387014896</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>649029.7380408248</v>
+        <v>649029.738040825</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>649029.7380408245</v>
+        <v>649029.7380408247</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>649029.7380408244</v>
+        <v>649029.7380408247</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>661294.1595528191</v>
+        <v>661294.1595528192</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>661294.1595528191</v>
+        <v>661294.159552819</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>661294.1595528191</v>
+        <v>661294.159552819</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>649029.7380408244</v>
+        <v>649029.7380408247</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>649029.7380408245</v>
+        <v>649029.7380408244</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573493.4371019268</v>
+        <v>573493.437101927</v>
       </c>
       <c r="C2" t="n">
         <v>573493.4371019268</v>
       </c>
       <c r="D2" t="n">
-        <v>573493.437101927</v>
+        <v>573493.4371019267</v>
       </c>
       <c r="E2" t="n">
-        <v>421649.719735259</v>
+        <v>421649.7197352591</v>
       </c>
       <c r="F2" t="n">
         <v>421649.7197352588</v>
       </c>
       <c r="G2" t="n">
-        <v>421649.7197352585</v>
+        <v>421649.7197352588</v>
       </c>
       <c r="H2" t="n">
-        <v>421649.7197352586</v>
+        <v>421649.7197352587</v>
       </c>
       <c r="I2" t="n">
-        <v>427750.9605158621</v>
+        <v>427750.9605158622</v>
       </c>
       <c r="J2" t="n">
-        <v>427750.9605158621</v>
+        <v>427750.9605158622</v>
       </c>
       <c r="K2" t="n">
         <v>427750.9605158621</v>
       </c>
       <c r="L2" t="n">
-        <v>427750.9605158619</v>
+        <v>427750.9605158622</v>
       </c>
       <c r="M2" t="n">
-        <v>421649.7197352587</v>
+        <v>421649.7197352586</v>
       </c>
       <c r="N2" t="n">
+        <v>421649.7197352588</v>
+      </c>
+      <c r="O2" t="n">
+        <v>421649.7197352586</v>
+      </c>
+      <c r="P2" t="n">
         <v>421649.7197352585</v>
-      </c>
-      <c r="O2" t="n">
-        <v>421649.7197352585</v>
-      </c>
-      <c r="P2" t="n">
-        <v>421649.7197352587</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.5793761241</v>
+        <v>924651.5793761244</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648348</v>
+        <v>4895.439270648317</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.3382468586</v>
+        <v>150597.3382468591</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
-        <v>17063.09274441894</v>
+        <v>17063.09274441895</v>
       </c>
       <c r="F4" t="n">
+        <v>17063.09274441893</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17063.09274441891</v>
+      </c>
+      <c r="H4" t="n">
         <v>17063.09274441892</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
+        <v>20188.99262982724</v>
+      </c>
+      <c r="J4" t="n">
+        <v>20188.99262982724</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20188.99262982724</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20188.99262982723</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17063.09274441892</v>
+      </c>
+      <c r="N4" t="n">
+        <v>17063.09274441891</v>
+      </c>
+      <c r="O4" t="n">
         <v>17063.0927444189</v>
-      </c>
-      <c r="H4" t="n">
-        <v>17063.0927444189</v>
-      </c>
-      <c r="I4" t="n">
-        <v>20188.99262982723</v>
-      </c>
-      <c r="J4" t="n">
-        <v>20188.99262982723</v>
-      </c>
-      <c r="K4" t="n">
-        <v>20188.99262982723</v>
-      </c>
-      <c r="L4" t="n">
-        <v>20188.99262982724</v>
-      </c>
-      <c r="M4" t="n">
-        <v>17063.09274441891</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17063.09274441892</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17063.09274441891</v>
       </c>
       <c r="P4" t="n">
         <v>17063.09274441891</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425678</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425677</v>
       </c>
       <c r="G5" t="n">
-        <v>57906.41050425671</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="H5" t="n">
-        <v>57906.41050425671</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="I5" t="n">
         <v>59025.70047253834</v>
@@ -26499,13 +26499,13 @@
         <v>59025.70047253834</v>
       </c>
       <c r="L5" t="n">
-        <v>59025.70047253833</v>
+        <v>59025.70047253834</v>
       </c>
       <c r="M5" t="n">
-        <v>57906.41050425671</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="N5" t="n">
-        <v>57906.41050425671</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="O5" t="n">
         <v>57906.41050425671</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119673.9324337144</v>
+        <v>119713.6546345276</v>
       </c>
       <c r="C6" t="n">
-        <v>119673.9324337144</v>
+        <v>119713.6546345274</v>
       </c>
       <c r="D6" t="n">
-        <v>119673.9324337146</v>
+        <v>119713.6546345273</v>
       </c>
       <c r="E6" t="n">
-        <v>-583438.4885741743</v>
+        <v>-578518.0754580045</v>
       </c>
       <c r="F6" t="n">
-        <v>341213.0908019496</v>
+        <v>346133.5039181198</v>
       </c>
       <c r="G6" t="n">
-        <v>341213.0908019494</v>
+        <v>346133.5039181203</v>
       </c>
       <c r="H6" t="n">
-        <v>341213.0908019494</v>
+        <v>346133.5039181196</v>
       </c>
       <c r="I6" t="n">
-        <v>338391.6039146647</v>
+        <v>343115.90572003</v>
       </c>
       <c r="J6" t="n">
-        <v>343287.0431853131</v>
+        <v>348011.3449906782</v>
       </c>
       <c r="K6" t="n">
-        <v>343287.0431853131</v>
+        <v>348011.3449906782</v>
       </c>
       <c r="L6" t="n">
-        <v>343287.0431853129</v>
+        <v>348011.3449906783</v>
       </c>
       <c r="M6" t="n">
-        <v>190615.7525550909</v>
+        <v>195536.1656712606</v>
       </c>
       <c r="N6" t="n">
-        <v>341213.0908019493</v>
+        <v>346133.5039181198</v>
       </c>
       <c r="O6" t="n">
-        <v>341213.0908019494</v>
+        <v>346133.5039181196</v>
       </c>
       <c r="P6" t="n">
-        <v>341213.0908019496</v>
+        <v>346133.5039181195</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074877</v>
       </c>
       <c r="F3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074878</v>
       </c>
       <c r="G3" t="n">
         <v>919.4890146074872</v>
@@ -26767,13 +26767,13 @@
         <v>919.4890146074872</v>
       </c>
       <c r="L3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="O3" t="n">
         <v>919.4890146074871</v>
@@ -26798,34 +26798,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087755</v>
       </c>
       <c r="F4" t="n">
-        <v>622.722861608775</v>
+        <v>622.7228616087754</v>
       </c>
       <c r="G4" t="n">
-        <v>622.7228616087745</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="H4" t="n">
-        <v>622.7228616087745</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="I4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="J4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="K4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="L4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087746</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="N4" t="n">
-        <v>622.7228616087746</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="O4" t="n">
         <v>622.7228616087745</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074877</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-5.042670150251723e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.722861608775</v>
+        <v>622.7228616087755</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831629</v>
+        <v>18.40937447831618</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304577</v>
+        <v>604.3134871304596</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>622.722861608775</v>
+        <v>622.7228616087755</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,40 +31755,40 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H11" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451831</v>
       </c>
       <c r="I11" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J11" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936373</v>
       </c>
       <c r="K11" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025215</v>
       </c>
       <c r="L11" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861151</v>
       </c>
       <c r="M11" t="n">
-        <v>649.0622128088321</v>
+        <v>649.0622128088322</v>
       </c>
       <c r="N11" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857309</v>
       </c>
       <c r="O11" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404918</v>
       </c>
       <c r="P11" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515578</v>
       </c>
       <c r="Q11" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R11" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S11" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T11" t="n">
         <v>16.18115843796694</v>
@@ -31837,43 +31837,43 @@
         <v>19.10108311477064</v>
       </c>
       <c r="I12" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895075</v>
       </c>
       <c r="J12" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K12" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321121</v>
       </c>
       <c r="L12" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956951</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N12" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O12" t="n">
-        <v>470.5615148623809</v>
+        <v>470.561514862381</v>
       </c>
       <c r="P12" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q12" t="n">
-        <v>252.4604554824181</v>
+        <v>252.4604554824182</v>
       </c>
       <c r="R12" t="n">
         <v>122.7951555734302</v>
       </c>
       <c r="S12" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T12" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153593</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,31 +31910,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H13" t="n">
-        <v>14.74197141452661</v>
+        <v>14.74197141452662</v>
       </c>
       <c r="I13" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J13" t="n">
-        <v>117.2273125672529</v>
+        <v>117.227312567253</v>
       </c>
       <c r="K13" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L13" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M13" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N13" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O13" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P13" t="n">
         <v>200.5390467268526</v>
@@ -31943,16 +31943,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R13" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S13" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T13" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598673</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040872</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.696438249678339</v>
+        <v>3.69643824967834</v>
       </c>
       <c r="H14" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451831</v>
       </c>
       <c r="I14" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J14" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936373</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025215</v>
       </c>
       <c r="L14" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861151</v>
       </c>
       <c r="M14" t="n">
-        <v>649.0622128088321</v>
+        <v>649.0622128088323</v>
       </c>
       <c r="N14" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857309</v>
       </c>
       <c r="O14" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404919</v>
       </c>
       <c r="P14" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515578</v>
       </c>
       <c r="Q14" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349521</v>
       </c>
       <c r="R14" t="n">
         <v>232.1963892013572</v>
       </c>
       <c r="S14" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454526</v>
       </c>
       <c r="T14" t="n">
         <v>16.18115843796694</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.2957150599742672</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.977768823872709</v>
+        <v>1.97776882387271</v>
       </c>
       <c r="H15" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477065</v>
       </c>
       <c r="I15" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895076</v>
       </c>
       <c r="J15" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K15" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321121</v>
       </c>
       <c r="L15" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956952</v>
       </c>
       <c r="M15" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610808</v>
       </c>
       <c r="N15" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755606</v>
       </c>
       <c r="O15" t="n">
-        <v>470.5615148623809</v>
+        <v>470.561514862381</v>
       </c>
       <c r="P15" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130265</v>
       </c>
       <c r="Q15" t="n">
-        <v>252.4604554824181</v>
+        <v>252.4604554824182</v>
       </c>
       <c r="R15" t="n">
         <v>122.7951555734302</v>
       </c>
       <c r="S15" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096895</v>
       </c>
       <c r="T15" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153594</v>
       </c>
       <c r="U15" t="n">
         <v>0.1301163699916257</v>
@@ -32150,13 +32150,13 @@
         <v>1.658094944374158</v>
       </c>
       <c r="H16" t="n">
-        <v>14.74197141452661</v>
+        <v>14.74197141452662</v>
       </c>
       <c r="I16" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445197</v>
       </c>
       <c r="J16" t="n">
-        <v>117.2273125672529</v>
+        <v>117.227312567253</v>
       </c>
       <c r="K16" t="n">
         <v>192.6404853554703</v>
@@ -32168,7 +32168,7 @@
         <v>259.9139193258509</v>
       </c>
       <c r="N16" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604566</v>
       </c>
       <c r="O16" t="n">
         <v>234.3641835920856</v>
@@ -32177,19 +32177,19 @@
         <v>200.5390467268526</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057307</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522349</v>
       </c>
       <c r="S16" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332055</v>
       </c>
       <c r="T16" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598674</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040872</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H32" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I32" t="n">
         <v>142.5069356207242</v>
@@ -33429,10 +33429,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M32" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N32" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O32" t="n">
         <v>622.8082601404915</v>
@@ -33441,13 +33441,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q32" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R32" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S32" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T32" t="n">
         <v>16.18115843796693</v>
@@ -33496,13 +33496,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I33" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J33" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K33" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L33" t="n">
         <v>429.4273930956949</v>
@@ -33514,10 +33514,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O33" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P33" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q33" t="n">
         <v>252.460455482418</v>
@@ -33526,7 +33526,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S33" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T33" t="n">
         <v>7.971796268153589</v>
@@ -33599,16 +33599,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R34" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S34" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T34" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U34" t="n">
         <v>0.09044154242040867</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H35" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I35" t="n">
         <v>142.5069356207242</v>
@@ -33666,10 +33666,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M35" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N35" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O35" t="n">
         <v>622.8082601404915</v>
@@ -33678,13 +33678,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q35" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R35" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S35" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T35" t="n">
         <v>16.18115843796693</v>
@@ -33733,13 +33733,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I36" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J36" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K36" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L36" t="n">
         <v>429.4273930956949</v>
@@ -33751,10 +33751,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O36" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P36" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q36" t="n">
         <v>252.460455482418</v>
@@ -33763,7 +33763,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S36" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T36" t="n">
         <v>7.971796268153589</v>
@@ -33836,16 +33836,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R37" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S37" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T37" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U37" t="n">
         <v>0.09044154242040867</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H38" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I38" t="n">
         <v>142.5069356207242</v>
@@ -33903,10 +33903,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M38" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N38" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O38" t="n">
         <v>622.8082601404915</v>
@@ -33915,13 +33915,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q38" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R38" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S38" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T38" t="n">
         <v>16.18115843796693</v>
@@ -33970,13 +33970,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I39" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J39" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K39" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L39" t="n">
         <v>429.4273930956949</v>
@@ -33988,10 +33988,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O39" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P39" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q39" t="n">
         <v>252.460455482418</v>
@@ -34000,7 +34000,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S39" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T39" t="n">
         <v>7.971796268153589</v>
@@ -34073,16 +34073,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R40" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S40" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T40" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U40" t="n">
         <v>0.09044154242040867</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>132.6846713669509</v>
+        <v>132.684671366951</v>
       </c>
       <c r="K11" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L11" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161278</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815595</v>
       </c>
       <c r="N11" t="n">
-        <v>430.1516543891398</v>
+        <v>430.15165438914</v>
       </c>
       <c r="O11" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188051</v>
       </c>
       <c r="P11" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962882</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722507</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597381</v>
       </c>
       <c r="K12" t="n">
-        <v>329.866993150982</v>
+        <v>181.5248539577531</v>
       </c>
       <c r="L12" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M12" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N12" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O12" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179366</v>
       </c>
       <c r="P12" t="n">
-        <v>243.6926936986961</v>
+        <v>562.1554623386334</v>
       </c>
       <c r="Q12" t="n">
-        <v>322.5559691322457</v>
+        <v>301.1636964467342</v>
       </c>
       <c r="R12" t="n">
-        <v>22.63732142078703</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058018</v>
       </c>
       <c r="K13" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295875</v>
       </c>
       <c r="L13" t="n">
         <v>274.1035227175432</v>
       </c>
       <c r="M13" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N13" t="n">
         <v>297.8659196396851</v>
@@ -35588,7 +35588,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>132.6846713669509</v>
+        <v>132.684671366951</v>
       </c>
       <c r="K14" t="n">
-        <v>250.1109559575409</v>
+        <v>250.110955957541</v>
       </c>
       <c r="L14" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161278</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815596</v>
       </c>
       <c r="N14" t="n">
-        <v>430.1516543891399</v>
+        <v>430.15165438914</v>
       </c>
       <c r="O14" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188052</v>
       </c>
       <c r="P14" t="n">
-        <v>300.3194450962881</v>
+        <v>300.3194450962882</v>
       </c>
       <c r="Q14" t="n">
         <v>176.8680561605026</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722504</v>
+        <v>16.6108513872251</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>69.98609258703209</v>
+        <v>60.01815506597384</v>
       </c>
       <c r="K15" t="n">
-        <v>445.9900909703316</v>
+        <v>181.5248539577531</v>
       </c>
       <c r="L15" t="n">
-        <v>290.8730133158209</v>
+        <v>290.873013315821</v>
       </c>
       <c r="M15" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390625</v>
       </c>
       <c r="N15" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922273</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179366</v>
       </c>
       <c r="P15" t="n">
-        <v>243.6926936986961</v>
+        <v>562.1554623386335</v>
       </c>
       <c r="Q15" t="n">
-        <v>322.5559691322457</v>
+        <v>301.1636964467328</v>
       </c>
       <c r="R15" t="n">
-        <v>22.63732142078705</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058019</v>
       </c>
       <c r="K16" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295875</v>
       </c>
       <c r="L16" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175433</v>
       </c>
       <c r="M16" t="n">
         <v>299.4977962876915</v>
       </c>
       <c r="N16" t="n">
-        <v>297.8659196396851</v>
+        <v>297.8659196396852</v>
       </c>
       <c r="O16" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061253</v>
       </c>
       <c r="P16" t="n">
         <v>197.8176059917461</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403627</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>132.6846713669501</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K17" t="n">
         <v>250.1109559575407</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>92.62341400781791</v>
+        <v>92.62341400781882</v>
       </c>
       <c r="K18" t="n">
         <v>445.9900909703315</v>
@@ -36202,7 +36202,7 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K21" t="n">
-        <v>329.8669931509798</v>
+        <v>445.9900909703315</v>
       </c>
       <c r="L21" t="n">
         <v>290.8730133158207</v>
@@ -36220,10 +36220,10 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q21" t="n">
-        <v>322.5559691322456</v>
+        <v>229.070192733682</v>
       </c>
       <c r="R21" t="n">
-        <v>22.637321420787</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.6846713669508</v>
+        <v>139.8619362969982</v>
       </c>
       <c r="K23" t="n">
         <v>250.1109559575407</v>
@@ -36366,7 +36366,7 @@
         <v>347.5592641161275</v>
       </c>
       <c r="M23" t="n">
-        <v>491.6096643845887</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N23" t="n">
         <v>430.1516543891397</v>
@@ -36381,7 +36381,7 @@
         <v>176.8680561605024</v>
       </c>
       <c r="R23" t="n">
-        <v>16.61085138722495</v>
+        <v>82.3272712602074</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K24" t="n">
-        <v>445.9900909703315</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L24" t="n">
         <v>290.8730133158207</v>
@@ -36451,13 +36451,13 @@
         <v>383.042996192227</v>
       </c>
       <c r="O24" t="n">
-        <v>327.9652704179363</v>
+        <v>571.8384158349809</v>
       </c>
       <c r="P24" t="n">
         <v>243.692693698696</v>
       </c>
       <c r="Q24" t="n">
-        <v>301.9638775367111</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>205.5783561699803</v>
+        <v>205.5783561699807</v>
       </c>
       <c r="K26" t="n">
         <v>250.1109559575407</v>
@@ -36676,7 +36676,7 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K27" t="n">
-        <v>181.5248539577529</v>
+        <v>425.3979993747975</v>
       </c>
       <c r="L27" t="n">
         <v>290.8730133158207</v>
@@ -36685,7 +36685,7 @@
         <v>358.9874790390621</v>
       </c>
       <c r="N27" t="n">
-        <v>604.2788201884839</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O27" t="n">
         <v>327.9652704179363</v>
@@ -36697,7 +36697,7 @@
         <v>322.5559691322456</v>
       </c>
       <c r="R27" t="n">
-        <v>22.637321420787</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>205.5783561699803</v>
+        <v>205.5783561699807</v>
       </c>
       <c r="K29" t="n">
         <v>250.1109559575407</v>
@@ -36913,7 +36913,7 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K30" t="n">
-        <v>181.5248539577529</v>
+        <v>425.3979993747975</v>
       </c>
       <c r="L30" t="n">
         <v>290.8730133158207</v>
@@ -36922,7 +36922,7 @@
         <v>358.9874790390621</v>
       </c>
       <c r="N30" t="n">
-        <v>641.1322360870907</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O30" t="n">
         <v>327.9652704179363</v>
@@ -36931,10 +36931,10 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q30" t="n">
-        <v>285.702553233639</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R30" t="n">
-        <v>22.637321420787</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,16 +37071,16 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K32" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L32" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M32" t="n">
-        <v>491.6096643845887</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N32" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O32" t="n">
         <v>392.7100487188047</v>
@@ -37089,10 +37089,10 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.8680561605023</v>
+        <v>249.7617409635321</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>186.1091904063825</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K33" t="n">
-        <v>181.5248539577528</v>
+        <v>402.76067795401</v>
       </c>
       <c r="L33" t="n">
         <v>290.8730133158207</v>
@@ -37159,7 +37159,7 @@
         <v>358.9874790390621</v>
       </c>
       <c r="N33" t="n">
-        <v>641.1322360870907</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O33" t="n">
         <v>327.9652704179363</v>
@@ -37168,10 +37168,10 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q33" t="n">
-        <v>308.3398746544266</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K34" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L34" t="n">
         <v>274.1035227175431</v>
@@ -37247,7 +37247,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L35" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N35" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O35" t="n">
         <v>392.7100487188047</v>
@@ -37326,10 +37326,10 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722513</v>
+        <v>16.61085138722559</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>92.62341400781852</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K36" t="n">
-        <v>445.9900909703314</v>
+        <v>329.8669931509808</v>
       </c>
       <c r="L36" t="n">
         <v>290.8730133158207</v>
@@ -37405,10 +37405,10 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q36" t="n">
-        <v>322.5559691322455</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K37" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L37" t="n">
         <v>274.1035227175431</v>
@@ -37484,7 +37484,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L38" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N38" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O38" t="n">
-        <v>392.7100487188046</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P38" t="n">
         <v>300.3194450962879</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.0181550659737</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K39" t="n">
-        <v>370.2098690080885</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L39" t="n">
         <v>290.8730133158207</v>
@@ -37639,13 +37639,13 @@
         <v>327.9652704179363</v>
       </c>
       <c r="P39" t="n">
-        <v>562.1554623386331</v>
+        <v>392.0348328919239</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K40" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L40" t="n">
         <v>274.1035227175431</v>
@@ -37721,7 +37721,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>347.5592641161275</v>
       </c>
       <c r="M41" t="n">
-        <v>418.7159795815584</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N41" t="n">
         <v>430.1516543891395</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.0181550659737</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K42" t="n">
-        <v>181.5248539577528</v>
+        <v>329.8669931509799</v>
       </c>
       <c r="L42" t="n">
         <v>290.8730133158207</v>
       </c>
       <c r="M42" t="n">
-        <v>622.7228616087745</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N42" t="n">
-        <v>622.7228616087745</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O42" t="n">
         <v>327.9652704179363</v>
@@ -37879,10 +37879,10 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q42" t="n">
-        <v>116.2112171004087</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.63732142078699</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>176.8680561605023</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>186.1091904063825</v>
       </c>
       <c r="K45" t="n">
-        <v>329.8669931509799</v>
+        <v>445.9900909703314</v>
       </c>
       <c r="L45" t="n">
         <v>290.8730133158207</v>
@@ -38113,10 +38113,10 @@
         <v>327.9652704179363</v>
       </c>
       <c r="P45" t="n">
-        <v>243.692693698696</v>
+        <v>337.6468836151938</v>
       </c>
       <c r="Q45" t="n">
-        <v>322.5559691322455</v>
+        <v>112.4786813963965</v>
       </c>
       <c r="R45" t="n">
         <v>22.63732142078699</v>
